--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Asgr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.231565040604955</v>
+        <v>0.053071</v>
       </c>
       <c r="H2">
-        <v>0.231565040604955</v>
+        <v>0.106142</v>
       </c>
       <c r="I2">
-        <v>0.3115416378478006</v>
+        <v>0.05191038755504431</v>
       </c>
       <c r="J2">
-        <v>0.3115416378478006</v>
+        <v>0.0414117334935566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30566965916629</v>
+        <v>1.600879</v>
       </c>
       <c r="N2">
-        <v>1.30566965916629</v>
+        <v>4.802637</v>
       </c>
       <c r="O2">
-        <v>0.6022355517169242</v>
+        <v>0.424218366280756</v>
       </c>
       <c r="P2">
-        <v>0.6022355517169242</v>
+        <v>0.4519487492975114</v>
       </c>
       <c r="Q2">
-        <v>0.3023474476414997</v>
+        <v>0.084960249409</v>
       </c>
       <c r="R2">
-        <v>0.3023474476414997</v>
+        <v>0.5097614964539999</v>
       </c>
       <c r="S2">
-        <v>0.1876214501520644</v>
+        <v>0.02202133980160179</v>
       </c>
       <c r="T2">
-        <v>0.1876214501520644</v>
+        <v>0.01871598115865477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.231565040604955</v>
+        <v>0.053071</v>
       </c>
       <c r="H3">
-        <v>0.231565040604955</v>
+        <v>0.106142</v>
       </c>
       <c r="I3">
-        <v>0.3115416378478006</v>
+        <v>0.05191038755504431</v>
       </c>
       <c r="J3">
-        <v>0.3115416378478006</v>
+        <v>0.0414117334935566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.183293817373573</v>
+        <v>0.2829473333333333</v>
       </c>
       <c r="N3">
-        <v>0.183293817373573</v>
+        <v>0.848842</v>
       </c>
       <c r="O3">
-        <v>0.08454363050969552</v>
+        <v>0.07497846838528281</v>
       </c>
       <c r="P3">
-        <v>0.08454363050969552</v>
+        <v>0.07987967448949362</v>
       </c>
       <c r="Q3">
-        <v>0.04244444026274864</v>
+        <v>0.01501629792733333</v>
       </c>
       <c r="R3">
-        <v>0.04244444026274864</v>
+        <v>0.090097787564</v>
       </c>
       <c r="S3">
-        <v>0.02633886111858983</v>
+        <v>0.003892161352163668</v>
       </c>
       <c r="T3">
-        <v>0.02633886111858983</v>
+        <v>0.003307955791510962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.231565040604955</v>
+        <v>0.053071</v>
       </c>
       <c r="H4">
-        <v>0.231565040604955</v>
+        <v>0.106142</v>
       </c>
       <c r="I4">
-        <v>0.3115416378478006</v>
+        <v>0.05191038755504431</v>
       </c>
       <c r="J4">
-        <v>0.3115416378478006</v>
+        <v>0.0414117334935566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.679074686341642</v>
+        <v>1.195252666666667</v>
       </c>
       <c r="N4">
-        <v>0.679074686341642</v>
+        <v>3.585758</v>
       </c>
       <c r="O4">
-        <v>0.3132208177733803</v>
+        <v>0.3167310793295747</v>
       </c>
       <c r="P4">
-        <v>0.3132208177733803</v>
+        <v>0.3374352139009352</v>
       </c>
       <c r="Q4">
-        <v>0.1572499573164994</v>
+        <v>0.06343325427266666</v>
       </c>
       <c r="R4">
-        <v>0.1572499573164994</v>
+        <v>0.380599525636</v>
       </c>
       <c r="S4">
-        <v>0.0975813265771464</v>
+        <v>0.01644163307872571</v>
       </c>
       <c r="T4">
-        <v>0.0975813265771464</v>
+        <v>0.0139737771494068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.106101439500447</v>
+        <v>0.053071</v>
       </c>
       <c r="H5">
-        <v>0.106101439500447</v>
+        <v>0.106142</v>
       </c>
       <c r="I5">
-        <v>0.1427461423089755</v>
+        <v>0.05191038755504431</v>
       </c>
       <c r="J5">
-        <v>0.1427461423089755</v>
+        <v>0.0414117334935566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.30566965916629</v>
+        <v>0.6946355</v>
       </c>
       <c r="N5">
-        <v>1.30566965916629</v>
+        <v>1.389271</v>
       </c>
       <c r="O5">
-        <v>0.6022355517169242</v>
+        <v>0.1840720860043864</v>
       </c>
       <c r="P5">
-        <v>0.6022355517169242</v>
+        <v>0.1307363623120596</v>
       </c>
       <c r="Q5">
-        <v>0.1385334303496014</v>
+        <v>0.0368650006205</v>
       </c>
       <c r="R5">
-        <v>0.1385334303496014</v>
+        <v>0.147460002482</v>
       </c>
       <c r="S5">
-        <v>0.08596680176890843</v>
+        <v>0.009555253322553145</v>
       </c>
       <c r="T5">
-        <v>0.08596680176890843</v>
+        <v>0.005414019393984069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.106101439500447</v>
+        <v>0.264044</v>
       </c>
       <c r="H6">
-        <v>0.106101439500447</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I6">
-        <v>0.1427461423089755</v>
+        <v>0.2582696081020542</v>
       </c>
       <c r="J6">
-        <v>0.1427461423089755</v>
+        <v>0.3090535252371162</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.183293817373573</v>
+        <v>1.600879</v>
       </c>
       <c r="N6">
-        <v>0.183293817373573</v>
+        <v>4.802637</v>
       </c>
       <c r="O6">
-        <v>0.08454363050969552</v>
+        <v>0.424218366280756</v>
       </c>
       <c r="P6">
-        <v>0.08454363050969552</v>
+        <v>0.4519487492975114</v>
       </c>
       <c r="Q6">
-        <v>0.01944773787486814</v>
+        <v>0.422702494676</v>
       </c>
       <c r="R6">
-        <v>0.01944773787486814</v>
+        <v>3.804322452084</v>
       </c>
       <c r="S6">
-        <v>0.01206827711205444</v>
+        <v>0.1095627112090246</v>
       </c>
       <c r="T6">
-        <v>0.01206827711205444</v>
+        <v>0.1396763541969015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.106101439500447</v>
+        <v>0.264044</v>
       </c>
       <c r="H7">
-        <v>0.106101439500447</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I7">
-        <v>0.1427461423089755</v>
+        <v>0.2582696081020542</v>
       </c>
       <c r="J7">
-        <v>0.1427461423089755</v>
+        <v>0.3090535252371162</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.679074686341642</v>
+        <v>0.2829473333333333</v>
       </c>
       <c r="N7">
-        <v>0.679074686341642</v>
+        <v>0.848842</v>
       </c>
       <c r="O7">
-        <v>0.3132208177733803</v>
+        <v>0.07497846838528281</v>
       </c>
       <c r="P7">
-        <v>0.3132208177733803</v>
+        <v>0.07987967448949362</v>
       </c>
       <c r="Q7">
-        <v>0.07205080174916276</v>
+        <v>0.07471054568266666</v>
       </c>
       <c r="R7">
-        <v>0.07205080174916276</v>
+        <v>0.6723949111440001</v>
       </c>
       <c r="S7">
-        <v>0.04471106342801262</v>
+        <v>0.01936465964595925</v>
       </c>
       <c r="T7">
-        <v>0.04471106342801262</v>
+        <v>0.02468709499577134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.405621133725796</v>
+        <v>0.264044</v>
       </c>
       <c r="H8">
-        <v>0.405621133725796</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I8">
-        <v>0.5457122198432238</v>
+        <v>0.2582696081020542</v>
       </c>
       <c r="J8">
-        <v>0.5457122198432238</v>
+        <v>0.3090535252371162</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.30566965916629</v>
+        <v>1.195252666666667</v>
       </c>
       <c r="N8">
-        <v>1.30566965916629</v>
+        <v>3.585758</v>
       </c>
       <c r="O8">
-        <v>0.6022355517169242</v>
+        <v>0.3167310793295747</v>
       </c>
       <c r="P8">
-        <v>0.6022355517169242</v>
+        <v>0.3374352139009352</v>
       </c>
       <c r="Q8">
-        <v>0.5296072074224042</v>
+        <v>0.3155992951173333</v>
       </c>
       <c r="R8">
-        <v>0.5296072074224042</v>
+        <v>2.840393656056</v>
       </c>
       <c r="S8">
-        <v>0.3286472997959514</v>
+        <v>0.08180201173218991</v>
       </c>
       <c r="T8">
-        <v>0.3286472997959514</v>
+        <v>0.1042855423952244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.405621133725796</v>
+        <v>0.264044</v>
       </c>
       <c r="H9">
-        <v>0.405621133725796</v>
+        <v>0.7921320000000001</v>
       </c>
       <c r="I9">
-        <v>0.5457122198432238</v>
+        <v>0.2582696081020542</v>
       </c>
       <c r="J9">
-        <v>0.5457122198432238</v>
+        <v>0.3090535252371162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.183293817373573</v>
+        <v>0.6946355</v>
       </c>
       <c r="N9">
-        <v>0.183293817373573</v>
+        <v>1.389271</v>
       </c>
       <c r="O9">
-        <v>0.08454363050969552</v>
+        <v>0.1840720860043864</v>
       </c>
       <c r="P9">
-        <v>0.08454363050969552</v>
+        <v>0.1307363623120596</v>
       </c>
       <c r="Q9">
-        <v>0.07434784600799768</v>
+        <v>0.183414335962</v>
       </c>
       <c r="R9">
-        <v>0.07434784600799768</v>
+        <v>1.100486015772</v>
       </c>
       <c r="S9">
-        <v>0.04613649227905124</v>
+        <v>0.04754022551488049</v>
       </c>
       <c r="T9">
-        <v>0.04613649227905124</v>
+        <v>0.04040453364921887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.109986</v>
+      </c>
+      <c r="H10">
+        <v>0.329958</v>
+      </c>
+      <c r="I10">
+        <v>0.1075807104751956</v>
+      </c>
+      <c r="J10">
+        <v>0.128734457237163</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.600879</v>
+      </c>
+      <c r="N10">
+        <v>4.802637</v>
+      </c>
+      <c r="O10">
+        <v>0.424218366280756</v>
+      </c>
+      <c r="P10">
+        <v>0.4519487492975114</v>
+      </c>
+      <c r="Q10">
+        <v>0.176074277694</v>
+      </c>
+      <c r="R10">
+        <v>1.584668499246</v>
+      </c>
+      <c r="S10">
+        <v>0.04563771324111048</v>
+      </c>
+      <c r="T10">
+        <v>0.05818137693982976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.109986</v>
+      </c>
+      <c r="H11">
+        <v>0.329958</v>
+      </c>
+      <c r="I11">
+        <v>0.1075807104751956</v>
+      </c>
+      <c r="J11">
+        <v>0.128734457237163</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2829473333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.848842</v>
+      </c>
+      <c r="O11">
+        <v>0.07497846838528281</v>
+      </c>
+      <c r="P11">
+        <v>0.07987967448949362</v>
+      </c>
+      <c r="Q11">
+        <v>0.03112024540399999</v>
+      </c>
+      <c r="R11">
+        <v>0.280082208636</v>
+      </c>
+      <c r="S11">
+        <v>0.008066236899230713</v>
+      </c>
+      <c r="T11">
+        <v>0.01028326653968621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.109986</v>
+      </c>
+      <c r="H12">
+        <v>0.329958</v>
+      </c>
+      <c r="I12">
+        <v>0.1075807104751956</v>
+      </c>
+      <c r="J12">
+        <v>0.128734457237163</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.195252666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.585758</v>
+      </c>
+      <c r="O12">
+        <v>0.3167310793295747</v>
+      </c>
+      <c r="P12">
+        <v>0.3374352139009352</v>
+      </c>
+      <c r="Q12">
+        <v>0.131461059796</v>
+      </c>
+      <c r="R12">
+        <v>1.183149538164</v>
+      </c>
+      <c r="S12">
+        <v>0.03407415454385117</v>
+      </c>
+      <c r="T12">
+        <v>0.04343953911424288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.109986</v>
+      </c>
+      <c r="H13">
+        <v>0.329958</v>
+      </c>
+      <c r="I13">
+        <v>0.1075807104751956</v>
+      </c>
+      <c r="J13">
+        <v>0.128734457237163</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6946355</v>
+      </c>
+      <c r="N13">
+        <v>1.389271</v>
+      </c>
+      <c r="O13">
+        <v>0.1840720860043864</v>
+      </c>
+      <c r="P13">
+        <v>0.1307363623120596</v>
+      </c>
+      <c r="Q13">
+        <v>0.07640018010299998</v>
+      </c>
+      <c r="R13">
+        <v>0.4584010806179999</v>
+      </c>
+      <c r="S13">
+        <v>0.01980260579100319</v>
+      </c>
+      <c r="T13">
+        <v>0.01683027464340408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1251003333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.375301</v>
+      </c>
+      <c r="I14">
+        <v>0.1223645076708289</v>
+      </c>
+      <c r="J14">
+        <v>0.1464252133167388</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.600879</v>
+      </c>
+      <c r="N14">
+        <v>4.802637</v>
+      </c>
+      <c r="O14">
+        <v>0.424218366280756</v>
+      </c>
+      <c r="P14">
+        <v>0.4519487492975114</v>
+      </c>
+      <c r="Q14">
+        <v>0.2002704965263333</v>
+      </c>
+      <c r="R14">
+        <v>1.802434468737</v>
+      </c>
+      <c r="S14">
+        <v>0.05190927153486808</v>
+      </c>
+      <c r="T14">
+        <v>0.06617669202412139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1251003333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.375301</v>
+      </c>
+      <c r="I15">
+        <v>0.1223645076708289</v>
+      </c>
+      <c r="J15">
+        <v>0.1464252133167388</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2829473333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.848842</v>
+      </c>
+      <c r="O15">
+        <v>0.07497846838528281</v>
+      </c>
+      <c r="P15">
+        <v>0.07987967448949362</v>
+      </c>
+      <c r="Q15">
+        <v>0.03539680571577778</v>
+      </c>
+      <c r="R15">
+        <v>0.318571251442</v>
+      </c>
+      <c r="S15">
+        <v>0.009174703369877944</v>
+      </c>
+      <c r="T15">
+        <v>0.01169639837679576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1251003333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.375301</v>
+      </c>
+      <c r="I16">
+        <v>0.1223645076708289</v>
+      </c>
+      <c r="J16">
+        <v>0.1464252133167388</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.195252666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.585758</v>
+      </c>
+      <c r="O16">
+        <v>0.3167310793295747</v>
+      </c>
+      <c r="P16">
+        <v>0.3374352139009352</v>
+      </c>
+      <c r="Q16">
+        <v>0.1495265070175555</v>
+      </c>
+      <c r="R16">
+        <v>1.345738563158</v>
+      </c>
+      <c r="S16">
+        <v>0.03875664258621368</v>
+      </c>
+      <c r="T16">
+        <v>0.04940902317602382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1251003333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.375301</v>
+      </c>
+      <c r="I17">
+        <v>0.1223645076708289</v>
+      </c>
+      <c r="J17">
+        <v>0.1464252133167388</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6946355</v>
+      </c>
+      <c r="N17">
+        <v>1.389271</v>
+      </c>
+      <c r="O17">
+        <v>0.1840720860043864</v>
+      </c>
+      <c r="P17">
+        <v>0.1307363623120596</v>
+      </c>
+      <c r="Q17">
+        <v>0.08689913259516667</v>
+      </c>
+      <c r="R17">
+        <v>0.521394795571</v>
+      </c>
+      <c r="S17">
+        <v>0.02252389017986922</v>
+      </c>
+      <c r="T17">
+        <v>0.01914309973979778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01924366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.057731</v>
+      </c>
+      <c r="I18">
+        <v>0.01882282592464348</v>
+      </c>
+      <c r="J18">
+        <v>0.02252398472156655</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.600879</v>
+      </c>
+      <c r="N18">
+        <v>4.802637</v>
+      </c>
+      <c r="O18">
+        <v>0.424218366280756</v>
+      </c>
+      <c r="P18">
+        <v>0.4519487492975114</v>
+      </c>
+      <c r="Q18">
+        <v>0.03080678184966667</v>
+      </c>
+      <c r="R18">
+        <v>0.277261036647</v>
+      </c>
+      <c r="S18">
+        <v>0.00798498846253932</v>
+      </c>
+      <c r="T18">
+        <v>0.01017968672410826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.405621133725796</v>
-      </c>
-      <c r="H10">
-        <v>0.405621133725796</v>
-      </c>
-      <c r="I10">
-        <v>0.5457122198432238</v>
-      </c>
-      <c r="J10">
-        <v>0.5457122198432238</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.679074686341642</v>
-      </c>
-      <c r="N10">
-        <v>0.679074686341642</v>
-      </c>
-      <c r="O10">
-        <v>0.3132208177733803</v>
-      </c>
-      <c r="P10">
-        <v>0.3132208177733803</v>
-      </c>
-      <c r="Q10">
-        <v>0.2754470441583862</v>
-      </c>
-      <c r="R10">
-        <v>0.2754470441583862</v>
-      </c>
-      <c r="S10">
-        <v>0.1709284277682213</v>
-      </c>
-      <c r="T10">
-        <v>0.1709284277682213</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01924366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.057731</v>
+      </c>
+      <c r="I19">
+        <v>0.01882282592464348</v>
+      </c>
+      <c r="J19">
+        <v>0.02252398472156655</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2829473333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.848842</v>
+      </c>
+      <c r="O19">
+        <v>0.07497846838528281</v>
+      </c>
+      <c r="P19">
+        <v>0.07987967448949362</v>
+      </c>
+      <c r="Q19">
+        <v>0.005444944166888888</v>
+      </c>
+      <c r="R19">
+        <v>0.049004497502</v>
+      </c>
+      <c r="S19">
+        <v>0.001411306658512563</v>
+      </c>
+      <c r="T19">
+        <v>0.001799208567765063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01924366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.057731</v>
+      </c>
+      <c r="I20">
+        <v>0.01882282592464348</v>
+      </c>
+      <c r="J20">
+        <v>0.02252398472156655</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.195252666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.585758</v>
+      </c>
+      <c r="O20">
+        <v>0.3167310793295747</v>
+      </c>
+      <c r="P20">
+        <v>0.3374352139009352</v>
+      </c>
+      <c r="Q20">
+        <v>0.02300104389977778</v>
+      </c>
+      <c r="R20">
+        <v>0.207009395098</v>
+      </c>
+      <c r="S20">
+        <v>0.005961773971145032</v>
+      </c>
+      <c r="T20">
+        <v>0.007600385602423205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01924366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.057731</v>
+      </c>
+      <c r="I21">
+        <v>0.01882282592464348</v>
+      </c>
+      <c r="J21">
+        <v>0.02252398472156655</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6946355</v>
+      </c>
+      <c r="N21">
+        <v>1.389271</v>
+      </c>
+      <c r="O21">
+        <v>0.1840720860043864</v>
+      </c>
+      <c r="P21">
+        <v>0.1307363623120596</v>
+      </c>
+      <c r="Q21">
+        <v>0.01336733401683333</v>
+      </c>
+      <c r="R21">
+        <v>0.080204004101</v>
+      </c>
+      <c r="S21">
+        <v>0.003464756832446569</v>
+      </c>
+      <c r="T21">
+        <v>0.002944703827270019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.450913</v>
+      </c>
+      <c r="H22">
+        <v>0.901826</v>
+      </c>
+      <c r="I22">
+        <v>0.4410519602722334</v>
+      </c>
+      <c r="J22">
+        <v>0.351851085993859</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.600879</v>
+      </c>
+      <c r="N22">
+        <v>4.802637</v>
+      </c>
+      <c r="O22">
+        <v>0.424218366280756</v>
+      </c>
+      <c r="P22">
+        <v>0.4519487492975114</v>
+      </c>
+      <c r="Q22">
+        <v>0.721857152527</v>
+      </c>
+      <c r="R22">
+        <v>4.331142915162</v>
+      </c>
+      <c r="S22">
+        <v>0.1871023420316117</v>
+      </c>
+      <c r="T22">
+        <v>0.1590186582538957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.450913</v>
+      </c>
+      <c r="H23">
+        <v>0.901826</v>
+      </c>
+      <c r="I23">
+        <v>0.4410519602722334</v>
+      </c>
+      <c r="J23">
+        <v>0.351851085993859</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2829473333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.848842</v>
+      </c>
+      <c r="O23">
+        <v>0.07497846838528281</v>
+      </c>
+      <c r="P23">
+        <v>0.07987967448949362</v>
+      </c>
+      <c r="Q23">
+        <v>0.1275846309153333</v>
+      </c>
+      <c r="R23">
+        <v>0.765507785492</v>
+      </c>
+      <c r="S23">
+        <v>0.03306940045953866</v>
+      </c>
+      <c r="T23">
+        <v>0.02810575021796429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.450913</v>
+      </c>
+      <c r="H24">
+        <v>0.901826</v>
+      </c>
+      <c r="I24">
+        <v>0.4410519602722334</v>
+      </c>
+      <c r="J24">
+        <v>0.351851085993859</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>1.195252666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.585758</v>
+      </c>
+      <c r="O24">
+        <v>0.3167310793295747</v>
+      </c>
+      <c r="P24">
+        <v>0.3374352139009352</v>
+      </c>
+      <c r="Q24">
+        <v>0.5389549656846666</v>
+      </c>
+      <c r="R24">
+        <v>3.233729794108</v>
+      </c>
+      <c r="S24">
+        <v>0.1396948634174492</v>
+      </c>
+      <c r="T24">
+        <v>0.1187269464636142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.450913</v>
+      </c>
+      <c r="H25">
+        <v>0.901826</v>
+      </c>
+      <c r="I25">
+        <v>0.4410519602722334</v>
+      </c>
+      <c r="J25">
+        <v>0.351851085993859</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6946355</v>
+      </c>
+      <c r="N25">
+        <v>1.389271</v>
+      </c>
+      <c r="O25">
+        <v>0.1840720860043864</v>
+      </c>
+      <c r="P25">
+        <v>0.1307363623120596</v>
+      </c>
+      <c r="Q25">
+        <v>0.3132201772115</v>
+      </c>
+      <c r="R25">
+        <v>1.252880708846</v>
+      </c>
+      <c r="S25">
+        <v>0.08118535436363375</v>
+      </c>
+      <c r="T25">
+        <v>0.04599973105838479</v>
       </c>
     </row>
   </sheetData>
